--- a/biology/Botanique/Ustilago_tritici/Ustilago_tritici.xlsx
+++ b/biology/Botanique/Ustilago_tritici/Ustilago_tritici.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charbon du blé, Charbon nu du blé
-Ustilago tritici, le Charbon du blé[1] ou Charbon nu du blé[1], est une espèce de champignons basidiomycètes de la famille des Ustilaginaceae.
+Ustilago tritici, le Charbon du blé ou Charbon nu du blé, est une espèce de champignons basidiomycètes de la famille des Ustilaginaceae.
 C'est un champignon phytopathogène responsable de la maladie du charbon nu du blé. Ustilago nuda a une biologie similaire sur l'orge.
 </t>
         </is>
@@ -513,9 +525,11 @@
           <t>Liste des formes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon MycoBank                                            (25 janvier 2023)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon MycoBank                                            (25 janvier 2023) :
 Ustilago tritici f. hordei Boerema, R.Pieters &amp; Hamers, 1992
 Ustilago tritici f. tritici</t>
         </is>
@@ -545,7 +559,9 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le charbon se caractérise par la formation d'amas noir de chlamydospores dans les épis. Il est dit « nu » car les enveloppes des fleurs sont détruites, seul persiste le rachillet principal.
 </t>
@@ -576,7 +592,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les spores tombées sur les papilles stigmatiques germent et forment un mycélium qui envahit l'ovule en environ trois semaines. Le mycélium reste ensuite à l'état latent jusqu'à ce que la semence germe. Il envahit alors la plantule. Les symptômes du charbon apparaissent entre la floraison et la maturité.
 </t>
@@ -607,7 +625,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son épithète spécifique, tritici, fait référence au genre Triticum dont plusieurs espèces de blés font partie.
 </t>
@@ -638,12 +658,14 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Ustilago tritici (Bjerk.) E.Rostrup, 1890[2].
-L'espèce a été initialement classée dans le genre Lycoperdon sous le basionyme Lycoperdon tritici Bjerk., 1775[2].
-Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Charbon du blé[1], Charbon nu du blé[1].
-Ustilago tritici a pour synonymes[2] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Ustilago tritici (Bjerk.) E.Rostrup, 1890.
+L'espèce a été initialement classée dans le genre Lycoperdon sous le basionyme Lycoperdon tritici Bjerk., 1775.
+Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Charbon du blé, Charbon nu du blé.
+Ustilago tritici a pour synonymes :
 Erysibe vera β tritici (Pers.) Wallr., 1833
 Lycoperdon tritici Bjerk., 1775
 Tilletia tritici subsp. tritici (Bjerk.) G.Winter, 1874
@@ -686,7 +708,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>(da) E. Rostrup, « Nogle Undersøgelser angaaende Ustilago », Oversigt over det Kongelige Danske Videnskabernes Selskabs Forhandlinger, Royaume de Danemark, vol. 1890,‎ 7 février 1890, p. 1-16 (ISSN 0369-7169, lire en ligne, consulté le 25 janvier 2023).</t>
         </is>
